--- a/chuc_nang.xlsx
+++ b/chuc_nang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_20fd\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thiet-ke-phan-mem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0CE9A487-25B3-45FA-8C86-1A281BA7577B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71135D22-514A-47B7-8F5C-120A866F3D40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30335406-5727-4D20-B6B2-E73A4084BA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A2:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="A2:E53"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="45" customHeight="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>

--- a/chuc_nang.xlsx
+++ b/chuc_nang.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Danh sách" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -736,16 +736,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="1" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="30">

--- a/chuc_nang.xlsx
+++ b/chuc_nang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thiet-ke-phan-mem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30335406-5727-4D20-B6B2-E73A4084BA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{30335406-5727-4D20-B6B2-E73A4084BA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DBFA1D60-6763-4007-877D-9FEA71D607B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <t>Xuất báo cáo</t>
   </si>
   <si>
-    <t>tổng hợp thông tin từ 29-33 ra 1 file</t>
+    <t>tổng hợp thông tin từ 30-34 ra 1 file</t>
   </si>
   <si>
     <t>Đặt sách trước</t>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -746,6 +746,7 @@
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="30">
@@ -1000,7 +1001,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5">
       <c r="A22" s="10">
         <v>20</v>
       </c>

--- a/chuc_nang.xlsx
+++ b/chuc_nang.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thiet-ke-phan-mem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{30335406-5727-4D20-B6B2-E73A4084BA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DBFA1D60-6763-4007-877D-9FEA71D607B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -296,8 +280,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,44 +296,184 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,30 +482,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -385,22 +701,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -408,69 +966,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFCCCC"/>
-      <color rgb="FFFF9999"/>
+      <color rgb="00FFCCCC"/>
+      <color rgb="00FF9999"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,7 +1196,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -618,9 +1220,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -644,7 +1246,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -697,7 +1299,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -722,719 +1324,798 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.87333333333333" customWidth="true"/>
+    <col min="3" max="3" width="24.8733333333333" customWidth="true"/>
+    <col min="4" max="4" width="24.3733333333333" customWidth="true"/>
+    <col min="5" max="5" width="27.6266666666667" customWidth="true"/>
+    <col min="6" max="6" width="15.3733333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="30">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="1" customFormat="true" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" ht="45" customHeight="true" spans="1:6">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="10">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" spans="1:6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="10">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="31.5" spans="1:5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="10">
+    <row r="7" ht="47.25" spans="1:6">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="10">
+      <c r="E7" s="3"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="47.25" spans="1:6">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="10">
+      <c r="E8" s="3"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="47.25" spans="1:5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="10">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="E11" s="3"/>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="60">
-      <c r="A13" s="10">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="47.25" spans="1:6">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="10">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="10">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="10">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="10">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" ht="31.5" spans="1:5">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="10">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="10">
+      <c r="E28" s="3"/>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10">
+      <c r="E29" s="3"/>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="30">
-      <c r="A33" s="10">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" ht="31.5" spans="1:5">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="30">
-      <c r="A34" s="10">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="45">
-      <c r="A35" s="10">
+      <c r="E34" s="3"/>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="31.5" spans="1:6">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" ht="45">
-      <c r="A36" s="10">
+      <c r="E35" s="3"/>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="47.25" spans="1:6">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="10">
+      <c r="E36" s="3"/>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="31.5" spans="1:6">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="10">
+      <c r="E37" s="3"/>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="31.5" spans="1:5">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="30">
-      <c r="A39" s="10">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" ht="30">
-      <c r="A40" s="10">
+      <c r="E39" s="3"/>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="31.5" spans="1:5">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" ht="30">
-      <c r="A41" s="10">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" ht="31.5" spans="1:6">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" ht="45">
-      <c r="A42" s="10">
+      <c r="E41" s="3"/>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="31.5" spans="1:6">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="3"/>
+      <c r="F42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="10">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="10">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="10">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" ht="30">
-      <c r="A49" s="10">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="10">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" ht="30">
-      <c r="A51" s="10">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="31.5" spans="1:5">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="10">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="10">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="4"/>
-      <c r="C59" s="3" t="s">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="5"/>
-      <c r="C60" s="3" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="13"/>
+      <c r="C60" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="6"/>
-      <c r="C61" s="3" t="s">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="7"/>
-      <c r="C62" s="3" t="s">
+    <row r="62" spans="2:3">
+      <c r="B62" s="15"/>
+      <c r="C62" s="11" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>